--- a/planejamento/cronograma2025.xlsx
+++ b/planejamento/cronograma2025.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t xml:space="preserve">LEGENDA             ======================================&gt; </t>
   </si>
@@ -49,33 +49,6 @@
     <t>CONTEÚDOS E ENTREGAS</t>
   </si>
   <si>
-    <t>seamana 07/10</t>
-  </si>
-  <si>
-    <t>seamana 21/10</t>
-  </si>
-  <si>
-    <t>seamana 29/10</t>
-  </si>
-  <si>
-    <t>seamana 04/11</t>
-  </si>
-  <si>
-    <t>seamana 11/11(Ensaios)</t>
-  </si>
-  <si>
-    <t>seamana 18/11</t>
-  </si>
-  <si>
-    <t>seamana 25/11</t>
-  </si>
-  <si>
-    <t>seamana 02/12</t>
-  </si>
-  <si>
-    <t>seamana 09/12</t>
-  </si>
-  <si>
     <t>Desenvolvimento da ideia/ Questão problema</t>
   </si>
   <si>
@@ -88,9 +61,6 @@
     <t>Explicação Normas ABNT Básicas</t>
   </si>
   <si>
-    <t>Aplicação das Pesquisas de Campo/Entrevistas</t>
-  </si>
-  <si>
     <t>Referencial Teórico (Segundo Capítulo)</t>
   </si>
   <si>
@@ -133,27 +103,15 @@
     <t>Integração Banco com sistema</t>
   </si>
   <si>
-    <t>Modelagem banco e casos de uso</t>
-  </si>
-  <si>
     <t>Termos de uso e Privacidade</t>
   </si>
   <si>
     <t>Apresentação protótipo</t>
   </si>
   <si>
-    <t>Inserir principais telas do protótipo na documentação, designs e principais funcionalidades.</t>
-  </si>
-  <si>
     <t>Explicação financeiro</t>
   </si>
   <si>
-    <t>Entrega financeiro na documentação</t>
-  </si>
-  <si>
-    <t>Pesquisar vários na mesma linha de pesquisa de vocês, LGPD e lei de proteção aos dados</t>
-  </si>
-  <si>
     <t>semana 24/02</t>
   </si>
   <si>
@@ -236,13 +194,118 @@
   </si>
   <si>
     <t>semana 06/10</t>
+  </si>
+  <si>
+    <t>somente telas, até de gerenciamento</t>
+  </si>
+  <si>
+    <t>Penúltima, maioria das funcionalidades</t>
+  </si>
+  <si>
+    <t>Com banco de dados principais funções</t>
+  </si>
+  <si>
+    <t>semana 13/10</t>
+  </si>
+  <si>
+    <t>semana 20/10</t>
+  </si>
+  <si>
+    <t>semana 28/10</t>
+  </si>
+  <si>
+    <t>seamana 03/11</t>
+  </si>
+  <si>
+    <t>seamana 10/11</t>
+  </si>
+  <si>
+    <t>seamana 17/11</t>
+  </si>
+  <si>
+    <t>seamana 24/11</t>
+  </si>
+  <si>
+    <t>seamana 01/12</t>
+  </si>
+  <si>
+    <t>seamana 08/12</t>
+  </si>
+  <si>
+    <t>Finalizado, só ajustes de correções simples</t>
+  </si>
+  <si>
+    <t>ensaio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apresentação </t>
+  </si>
+  <si>
+    <t>Elaboração e Aplicação das Pesquisas de Campo/Entrevistas</t>
+  </si>
+  <si>
+    <t>Validaçãdo orientador</t>
+  </si>
+  <si>
+    <t>Inicio da Aplicação</t>
+  </si>
+  <si>
+    <t>Continuação da Aplicação</t>
+  </si>
+  <si>
+    <t>Explicação</t>
+  </si>
+  <si>
+    <t>Elaboração</t>
+  </si>
+  <si>
+    <t>Tabulação e textos abnt</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Entrega no capítulo</t>
+  </si>
+  <si>
+    <t>Definição da Persona</t>
+  </si>
+  <si>
+    <t>Diagrama de Afinidades</t>
+  </si>
+  <si>
+    <t>Mapa de empatia</t>
+  </si>
+  <si>
+    <t>Jornada do Usuário</t>
+  </si>
+  <si>
+    <t>BrainStorming, Golden Circle e Cardápio de ideias</t>
+  </si>
+  <si>
+    <t>Entrega com Introdução, problemática e Justificativa e objetivos</t>
+  </si>
+  <si>
+    <t>primeira entrega</t>
+  </si>
+  <si>
+    <t>Segunda entrega</t>
+  </si>
+  <si>
+    <t>Caderno de sensibiidade, entrega no capítulo 3</t>
+  </si>
+  <si>
+    <t>Explicação Objetivos</t>
+  </si>
+  <si>
+    <t>Elaboração das peguntas, explicação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +324,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,12 +362,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -450,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
@@ -491,10 +554,13 @@
     <xf numFmtId="16" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -507,8 +573,22 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -791,204 +871,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="11" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" style="14"/>
+    <col min="3" max="10" width="6.7109375" style="15"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="23" max="31" width="11.140625" customWidth="1"/>
     <col min="32" max="32" width="10.42578125" customWidth="1"/>
     <col min="33" max="33" width="9.140625" customWidth="1"/>
     <col min="34" max="34" width="12.42578125" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-    </row>
-    <row r="2" spans="1:41" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+    </row>
+    <row r="2" spans="1:38" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AH2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AI2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AK2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AL2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1022,19 +1095,16 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-    </row>
-    <row r="4" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1067,74 +1137,87 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-    </row>
-    <row r="5" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:38" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1142,85 +1225,91 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="AE6" s="24"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-    </row>
-    <row r="8" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+    </row>
+    <row r="8" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="G8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1247,25 +1336,30 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-    </row>
-    <row r="9" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1292,13 +1386,10 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-    </row>
-    <row r="10" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1311,8 +1402,12 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1337,27 +1432,29 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-    </row>
-    <row r="11" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="M11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1382,28 +1479,33 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-    </row>
-    <row r="12" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1427,18 +1529,17 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-    </row>
-    <row r="13" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1472,25 +1573,26 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1517,13 +1619,10 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-    </row>
-    <row r="15" spans="1:41" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:38" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1546,39 +1645,32 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
       <c r="AF15" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1612,22 +1704,17 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-    </row>
-    <row r="17" spans="1:41" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:38" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1662,19 +1749,14 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-    </row>
-    <row r="18" spans="1:41" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1713,13 +1795,10 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-    </row>
-    <row r="19" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1758,13 +1837,10 @@
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-    </row>
-    <row r="20" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1803,13 +1879,10 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-    </row>
-    <row r="21" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1848,14 +1921,11 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="S1:AO1"/>
+    <mergeCell ref="S1:AL1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/planejamento/cronograma2025.xlsx
+++ b/planejamento/cronograma2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cintia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16846A81-81BF-48E7-A775-95B3F3BC1CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t xml:space="preserve">LEGENDA             ======================================&gt; </t>
   </si>
@@ -88,9 +78,6 @@
     <t>Conclusão/Resumo</t>
   </si>
   <si>
-    <t>TCC completo para leitura dos Orientadores</t>
-  </si>
-  <si>
     <t>Pré-Banca e entrega do TCC (ensaio)</t>
   </si>
   <si>
@@ -100,18 +87,9 @@
     <t>Desenvolvimento do Site/Entregas das versões betas</t>
   </si>
   <si>
-    <t>Integração Banco com sistema</t>
-  </si>
-  <si>
     <t>Termos de uso e Privacidade</t>
   </si>
   <si>
-    <t>Apresentação protótipo</t>
-  </si>
-  <si>
-    <t>Explicação financeiro</t>
-  </si>
-  <si>
     <t>semana 24/02</t>
   </si>
   <si>
@@ -299,12 +277,45 @@
   </si>
   <si>
     <t>Elaboração das peguntas, explicação</t>
+  </si>
+  <si>
+    <t>Entrega Diagrama de caso de uso e modelagem banco de dados</t>
+  </si>
+  <si>
+    <t>Explicação Canvas</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Entrega análise de concorrência</t>
+  </si>
+  <si>
+    <t>Entrega em Apêncice e anexado ao sistema</t>
+  </si>
+  <si>
+    <t>Explicação Financeiro e elaboração</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elaboração financeiro</t>
+  </si>
+  <si>
+    <t>Entrega junto com documentação</t>
+  </si>
+  <si>
+    <t>Finalizalização da Documentação e conclusão</t>
+  </si>
+  <si>
+    <t>TCC completo para leitura do Orientador</t>
+  </si>
+  <si>
+    <t>Elaboração metodologia e Resultados esperados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
@@ -561,6 +572,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -573,23 +602,8 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,198 +884,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="11" customWidth="1"/>
-    <col min="3" max="10" width="6.7109375" style="15"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="23" max="31" width="11.140625" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="11" customWidth="1"/>
+    <col min="3" max="10" width="6.6640625" style="15"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="23" max="31" width="11.109375" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" customWidth="1"/>
+    <col min="33" max="33" width="9.109375" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-    </row>
-    <row r="2" spans="1:38" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+    </row>
+    <row r="2" spans="1:38" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AI2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AK2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AL2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1096,15 +1114,15 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1138,65 +1156,65 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK5" s="24" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK5" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1205,8 +1223,8 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="24" t="s">
-        <v>83</v>
+      <c r="G6" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1215,8 +1233,8 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="24" t="s">
-        <v>84</v>
+      <c r="P6" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1225,90 +1243,90 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="20"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="24"/>
+      <c r="AE6" s="20"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-    </row>
-    <row r="8" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+    </row>
+    <row r="8" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>71</v>
+      <c r="G8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1337,7 +1355,7 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1345,20 +1363,20 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>73</v>
+      <c r="F9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="24" t="s">
-        <v>75</v>
+      <c r="L9" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1387,7 +1405,7 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1402,11 +1420,11 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>74</v>
+      <c r="M10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1433,7 +1451,7 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
     </row>
-    <row r="11" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1441,19 +1459,19 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="24" t="s">
-        <v>85</v>
+      <c r="G11" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>76</v>
+      <c r="M11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1480,7 +1498,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1489,22 +1507,22 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>80</v>
+      <c r="G12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="24" t="s">
-        <v>78</v>
+      <c r="O12" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1530,15 +1548,15 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="24" t="s">
-        <v>81</v>
+      <c r="E13" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1574,7 +1592,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1582,18 +1600,20 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>82</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1620,14 +1640,16 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1654,47 +1676,57 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="T16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="X16" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -1703,18 +1735,16 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1738,7 +1768,9 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="X17" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -1754,7 +1786,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1788,7 +1820,9 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+      <c r="AF18" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
@@ -1796,9 +1830,9 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1830,7 +1864,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+      <c r="AF19" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
@@ -1838,9 +1874,9 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1874,15 +1910,15 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1918,9 +1954,9 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/planejamento/cronograma2025.xlsx
+++ b/planejamento/cronograma2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cintia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16846A81-81BF-48E7-A775-95B3F3BC1CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t xml:space="preserve">LEGENDA             ======================================&gt; </t>
   </si>
@@ -258,9 +257,6 @@
     <t>Jornada do Usuário</t>
   </si>
   <si>
-    <t>BrainStorming, Golden Circle e Cardápio de ideias</t>
-  </si>
-  <si>
     <t>Entrega com Introdução, problemática e Justificativa e objetivos</t>
   </si>
   <si>
@@ -310,12 +306,27 @@
   </si>
   <si>
     <t>Elaboração metodologia e Resultados esperados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golden Circle e Cardápio de ideias</t>
+  </si>
+  <si>
+    <t>BrainStorming,</t>
+  </si>
+  <si>
+    <t>Todos os itens anteriores Entrega junto com documentação</t>
+  </si>
+  <si>
+    <t>Correção da pesquisa de campo junto com a documentação</t>
+  </si>
+  <si>
+    <t>Entrega para avaliação, somente da planilha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,6 +601,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -601,9 +615,6 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,79 +895,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="11" customWidth="1"/>
-    <col min="3" max="10" width="6.6640625" style="15"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="11" customWidth="1"/>
+    <col min="3" max="10" width="6.7109375" style="15"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="31" width="11.109375" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" customWidth="1"/>
-    <col min="34" max="34" width="12.44140625" customWidth="1"/>
+    <col min="23" max="31" width="11.140625" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-    </row>
-    <row r="2" spans="1:38" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+    </row>
+    <row r="2" spans="1:38" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1125,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1167,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1186,10 +1197,10 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
@@ -1214,7 +1225,7 @@
       </c>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1235,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1233,9 +1244,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1243,9 +1252,11 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
@@ -1259,7 +1270,7 @@
       <c r="AK6" s="20"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1312,7 @@
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
     </row>
-    <row r="8" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>64</v>
       </c>
@@ -1311,7 +1322,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>65</v>
@@ -1355,7 +1366,7 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1402,9 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -1405,7 +1418,7 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1464,7 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
     </row>
-    <row r="11" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1473,7 @@
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1484,7 +1497,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -1498,7 +1513,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1507,9 +1522,6 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="20" t="s">
         <v>75</v>
       </c>
@@ -1528,13 +1540,17 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="Z12" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
@@ -1548,7 +1564,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1572,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="20" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1573,12 +1589,16 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="Z13" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -1592,7 +1612,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1601,10 +1621,10 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1612,7 +1632,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="15"/>
       <c r="M14" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1640,7 +1660,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1648,7 +1668,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1665,7 +1685,6 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
@@ -1684,7 +1703,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -1692,7 +1711,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1701,10 +1720,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1714,21 +1733,22 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="27" t="s">
+      <c r="T16" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U16" s="27" t="s">
+      <c r="V16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="V16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
@@ -1742,7 +1762,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1768,11 +1788,12 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="Y17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
@@ -1786,7 +1807,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1814,14 +1835,16 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
@@ -1830,9 +1853,9 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1865,7 +1888,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -1874,7 +1897,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1939,7 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>

--- a/planejamento/cronograma2025.xlsx
+++ b/planejamento/cronograma2025.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t xml:space="preserve">LEGENDA             ======================================&gt; </t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Entrega para avaliação, somente da planilha</t>
+  </si>
+  <si>
+    <t>Apresentação pré feira com slides</t>
   </si>
 </sst>
 </file>
@@ -899,10 +902,10 @@
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1207,9 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
+      <c r="AC5" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="AD5" s="19"/>
       <c r="AE5" s="20" t="s">
         <v>61</v>
@@ -1254,11 +1259,10 @@
       <c r="W6" s="3"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="20"/>
-      <c r="Z6" s="20" t="s">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="20"/>
@@ -1298,7 +1302,6 @@
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
@@ -1352,7 +1355,6 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -1402,11 +1404,10 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="20" t="s">
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1450,7 +1451,6 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -1497,11 +1497,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="20" t="s">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1548,11 +1547,10 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="20" t="s">
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1596,11 +1594,10 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="20" t="s">
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
